--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_12_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_12_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>616311.2299895792</v>
+        <v>481352.3701467951</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1664213.506290206</v>
+        <v>1555141.93562567</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23879529.32664355</v>
+        <v>23761974.06497437</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4710087.566812821</v>
+        <v>4759621.737771833</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>12.63746487257851</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>12.63746487257851</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>12.63746487257851</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>12.63746487257851</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="F23" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>14.51302356503218</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2599,19 +2599,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="S27" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="U27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="I29" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="T30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="U30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V30" t="n">
-        <v>14.51302356503218</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="E32" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="F32" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,25 +3152,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W33" t="n">
-        <v>14.51302356503218</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="F35" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="G35" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.47709305748431</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="I35" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.15048843761069</v>
       </c>
       <c r="X36" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="G39" t="n">
-        <v>14.51302356503218</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>27.1504884376107</v>
       </c>
       <c r="V39" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3742,62 +3742,62 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>16.47709305748431</v>
       </c>
-      <c r="D41" t="n">
+      <c r="S41" t="n">
         <v>16.47709305748431</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
       <c r="T41" t="n">
+        <v>16.47709305748431</v>
+      </c>
+      <c r="U41" t="n">
         <v>14.51302356503218</v>
       </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,76 +3818,76 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>14.51302356503218</v>
       </c>
-      <c r="C42" t="n">
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
         <v>16.47709305748431</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="V42" t="n">
         <v>16.47709305748431</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
+        <v>16.47709305748431</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>14.51302356503218</v>
-      </c>
-      <c r="S44" t="n">
-        <v>16.47709305748431</v>
-      </c>
-      <c r="T44" t="n">
-        <v>16.47709305748431</v>
-      </c>
-      <c r="U44" t="n">
-        <v>16.47709305748431</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>14.51302356503218</v>
+      </c>
+      <c r="U45" t="n">
         <v>16.47709305748431</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>16.47709305748431</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>14.51302356503218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.716692659793409</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>16.92092770049814</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>31.12516274120288</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>45.32939778190762</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>42.89821010150598</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>42.89821010150598</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>42.89821010150598</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>15.35205201369098</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>29.55628705439571</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.76052209510044</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.716692659793409</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>16.92092770049814</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>28.9823785679026</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>43.18661360860733</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>42.89821010150598</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>15.64045552079232</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>15.35205201369098</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>29.55628705439571</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.76052209510044</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.39084864931206</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>42.89821010150598</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>42.89821010150598</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>28.4055715536999</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>13.91293300589383</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.147816972986241</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="C23" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="D23" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="E23" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K23" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L23" t="n">
-        <v>17.55565954206922</v>
+        <v>32.98254158519919</v>
       </c>
       <c r="M23" t="n">
-        <v>33.86798166897869</v>
+        <v>46.53803810997182</v>
       </c>
       <c r="N23" t="n">
-        <v>33.86798166897869</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O23" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P23" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q23" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R23" t="n">
-        <v>34.60522412638524</v>
+        <v>92.16305399055</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="T23" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="U23" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="V23" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="W23" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="X23" t="n">
-        <v>34.60522412638524</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.60522412638524</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="C24" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="D24" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="E24" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="F24" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="G24" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="H24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K24" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L24" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M24" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N24" t="n">
-        <v>49.59605010302778</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O24" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P24" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R24" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="S24" t="n">
-        <v>65.90837222993726</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="T24" t="n">
-        <v>65.90837222993726</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="U24" t="n">
-        <v>65.90837222993726</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="V24" t="n">
-        <v>65.90837222993726</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="W24" t="n">
-        <v>65.90837222993726</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="X24" t="n">
-        <v>65.90837222993726</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="Y24" t="n">
-        <v>49.26484388904401</v>
+        <v>29.89072021315134</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.318167444598745</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="C26" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="D26" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="E26" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="F26" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="G26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J26" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K26" t="n">
-        <v>2.887043131405913</v>
+        <v>4.034860104392155</v>
       </c>
       <c r="L26" t="n">
-        <v>19.19936525831539</v>
+        <v>34.55141727200636</v>
       </c>
       <c r="M26" t="n">
-        <v>19.19936525831539</v>
+        <v>65.06797443962057</v>
       </c>
       <c r="N26" t="n">
-        <v>35.51168738522486</v>
+        <v>95.58453160723478</v>
       </c>
       <c r="O26" t="n">
-        <v>51.82400951213433</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P26" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R26" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S26" t="n">
-        <v>15.97778720725751</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T26" t="n">
-        <v>1.318167444598745</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U26" t="n">
-        <v>1.318167444598745</v>
+        <v>92.16305399055</v>
       </c>
       <c r="V26" t="n">
-        <v>1.318167444598745</v>
+        <v>92.16305399055</v>
       </c>
       <c r="W26" t="n">
-        <v>1.318167444598745</v>
+        <v>92.16305399055</v>
       </c>
       <c r="X26" t="n">
-        <v>1.318167444598745</v>
+        <v>92.16305399055</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.318167444598745</v>
+        <v>92.16305399055</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L27" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M27" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N27" t="n">
-        <v>49.59605010302779</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O27" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P27" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q27" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R27" t="n">
-        <v>65.90837222993726</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="S27" t="n">
-        <v>51.24875246727849</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="T27" t="n">
-        <v>51.24875246727849</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="U27" t="n">
-        <v>34.60522412638524</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="V27" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W27" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X27" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="C29" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="D29" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="E29" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="F29" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G29" t="n">
-        <v>51.24875246727849</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="H29" t="n">
-        <v>34.60522412638524</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I29" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J29" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K29" t="n">
-        <v>2.887043131405913</v>
+        <v>4.034860104392155</v>
       </c>
       <c r="L29" t="n">
-        <v>19.19936525831539</v>
+        <v>34.55141727200636</v>
       </c>
       <c r="M29" t="n">
-        <v>33.86798166897869</v>
+        <v>65.06797443962057</v>
       </c>
       <c r="N29" t="n">
-        <v>50.18030379588816</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O29" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P29" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R29" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S29" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T29" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U29" t="n">
-        <v>65.90837222993726</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="V29" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="W29" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="X29" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="Y29" t="n">
-        <v>65.90837222993726</v>
+        <v>64.73831819498363</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L30" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M30" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N30" t="n">
-        <v>49.59605010302778</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O30" t="n">
-        <v>65.90837222993724</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P30" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R30" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S30" t="n">
-        <v>49.26484388904401</v>
+        <v>92.16305399055</v>
       </c>
       <c r="T30" t="n">
-        <v>32.62131554815076</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="U30" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="V30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="C32" t="n">
-        <v>32.62131554815076</v>
+        <v>92.16305399055</v>
       </c>
       <c r="D32" t="n">
-        <v>32.62131554815076</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="E32" t="n">
-        <v>15.97778720725751</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="F32" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="G32" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H32" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I32" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J32" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K32" t="n">
-        <v>2.887043131405913</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L32" t="n">
-        <v>2.887043131405913</v>
+        <v>16.02148094235761</v>
       </c>
       <c r="M32" t="n">
-        <v>17.55565954206922</v>
+        <v>46.53803810997182</v>
       </c>
       <c r="N32" t="n">
-        <v>33.86798166897869</v>
+        <v>77.05459527758603</v>
       </c>
       <c r="O32" t="n">
-        <v>50.18030379588816</v>
+        <v>107.5711524452002</v>
       </c>
       <c r="P32" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R32" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S32" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T32" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U32" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="V32" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="W32" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="X32" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="C33" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="D33" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="E33" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="F33" t="n">
-        <v>1.318167444598745</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="G33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K33" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L33" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M33" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N33" t="n">
-        <v>49.59605010302779</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O33" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P33" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R33" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S33" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T33" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U33" t="n">
-        <v>32.62131554815076</v>
+        <v>92.16305399055</v>
       </c>
       <c r="V33" t="n">
-        <v>32.62131554815076</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="W33" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="X33" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.96169578549199</v>
+        <v>29.89072021315134</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.90837222993726</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="C35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="D35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="E35" t="n">
-        <v>65.90837222993726</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="F35" t="n">
-        <v>49.26484388904401</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="G35" t="n">
-        <v>34.60522412638524</v>
+        <v>29.89072021315134</v>
       </c>
       <c r="H35" t="n">
-        <v>17.96169578549199</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I35" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J35" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K35" t="n">
-        <v>2.887043131405913</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L35" t="n">
-        <v>16.97140584920884</v>
+        <v>32.98254158519919</v>
       </c>
       <c r="M35" t="n">
-        <v>33.28372797611831</v>
+        <v>63.4990987528134</v>
       </c>
       <c r="N35" t="n">
-        <v>49.59605010302779</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O35" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P35" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="R35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="S35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="T35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="U35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="V35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="W35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="X35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="Y35" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.62131554815076</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="C36" t="n">
-        <v>15.97778720725751</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="D36" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="E36" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="F36" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="G36" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="H36" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I36" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J36" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K36" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L36" t="n">
-        <v>16.97140584920884</v>
+        <v>18.11922282219508</v>
       </c>
       <c r="M36" t="n">
-        <v>33.28372797611831</v>
+        <v>48.63577998980929</v>
       </c>
       <c r="N36" t="n">
-        <v>49.59605010302779</v>
+        <v>79.15233715742349</v>
       </c>
       <c r="O36" t="n">
-        <v>65.90837222993726</v>
+        <v>109.6688943250377</v>
       </c>
       <c r="P36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T36" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U36" t="n">
-        <v>65.90837222993726</v>
+        <v>92.16305399055</v>
       </c>
       <c r="V36" t="n">
-        <v>65.90837222993726</v>
+        <v>61.02688710185067</v>
       </c>
       <c r="W36" t="n">
-        <v>65.90837222993726</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="X36" t="n">
-        <v>49.26484388904401</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="Y36" t="n">
-        <v>32.62131554815076</v>
+        <v>33.60215130628431</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.96169578549199</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="C38" t="n">
-        <v>17.96169578549199</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="D38" t="n">
-        <v>1.318167444598745</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="E38" t="n">
-        <v>1.318167444598745</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="F38" t="n">
-        <v>1.318167444598745</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="G38" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="H38" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I38" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J38" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K38" t="n">
-        <v>2.887043131405913</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L38" t="n">
-        <v>19.19936525831539</v>
+        <v>32.98254158519919</v>
       </c>
       <c r="M38" t="n">
-        <v>35.51168738522486</v>
+        <v>63.4990987528134</v>
       </c>
       <c r="N38" t="n">
-        <v>50.18030379588816</v>
+        <v>94.0156559204276</v>
       </c>
       <c r="O38" t="n">
-        <v>50.18030379588816</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U38" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="V38" t="n">
-        <v>51.24875246727849</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="W38" t="n">
-        <v>34.60522412638524</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="X38" t="n">
-        <v>17.96169578549199</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.96169578549199</v>
+        <v>123.2992208792493</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="C39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="D39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="E39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="F39" t="n">
-        <v>15.97778720725751</v>
+        <v>64.73831819498363</v>
       </c>
       <c r="G39" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="H39" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="I39" t="n">
-        <v>1.318167444598745</v>
+        <v>33.60215130628431</v>
       </c>
       <c r="J39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K39" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L39" t="n">
-        <v>16.97140584920884</v>
+        <v>31.7495493764067</v>
       </c>
       <c r="M39" t="n">
-        <v>33.28372797611831</v>
+        <v>62.26610654402091</v>
       </c>
       <c r="N39" t="n">
-        <v>49.59605010302778</v>
+        <v>92.78266371163512</v>
       </c>
       <c r="O39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="P39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="R39" t="n">
-        <v>65.90837222993726</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="S39" t="n">
-        <v>49.26484388904401</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="T39" t="n">
-        <v>32.62131554815076</v>
+        <v>123.2992208792493</v>
       </c>
       <c r="U39" t="n">
-        <v>32.62131554815076</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="V39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="W39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="X39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.97778720725751</v>
+        <v>95.87448508368297</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="C40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="D40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="E40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="F40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="G40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="H40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="I40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="J40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="K40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="L40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="M40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="N40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="O40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="P40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="R40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="S40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="T40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="U40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="V40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="W40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="X40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.318167444598745</v>
+        <v>2.465984417584987</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.60522412638524</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="C41" t="n">
-        <v>17.96169578549199</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="D41" t="n">
         <v>1.318167444598745</v>
@@ -7414,13 +7414,13 @@
         <v>1.318167444598745</v>
       </c>
       <c r="K41" t="n">
-        <v>2.887043131405913</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L41" t="n">
-        <v>19.19936525831539</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="M41" t="n">
-        <v>19.19936525831539</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="N41" t="n">
         <v>33.86798166897869</v>
@@ -7435,28 +7435,28 @@
         <v>65.90837222993726</v>
       </c>
       <c r="R41" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S41" t="n">
-        <v>65.90837222993726</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="T41" t="n">
-        <v>51.24875246727849</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="U41" t="n">
-        <v>51.24875246727849</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="V41" t="n">
-        <v>51.24875246727849</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="W41" t="n">
-        <v>51.24875246727849</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X41" t="n">
-        <v>51.24875246727849</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y41" t="n">
-        <v>34.60522412638524</v>
+        <v>1.318167444598745</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.60522412638524</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="C42" t="n">
-        <v>17.96169578549199</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="D42" t="n">
-        <v>17.96169578549199</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="E42" t="n">
-        <v>17.96169578549199</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="F42" t="n">
-        <v>17.96169578549199</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="G42" t="n">
-        <v>17.96169578549199</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="H42" t="n">
-        <v>17.96169578549199</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="I42" t="n">
         <v>1.318167444598745</v>
@@ -7523,19 +7523,19 @@
         <v>65.90837222993726</v>
       </c>
       <c r="U42" t="n">
-        <v>65.90837222993726</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="V42" t="n">
-        <v>65.90837222993726</v>
+        <v>32.62131554815076</v>
       </c>
       <c r="W42" t="n">
-        <v>65.90837222993726</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="X42" t="n">
-        <v>65.90837222993726</v>
+        <v>15.97778720725751</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.26484388904401</v>
+        <v>15.97778720725751</v>
       </c>
     </row>
     <row r="43">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="C44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="D44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="E44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="F44" t="n">
-        <v>1.318167444598745</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="G44" t="n">
         <v>1.318167444598745</v>
@@ -7651,16 +7651,16 @@
         <v>1.318167444598745</v>
       </c>
       <c r="K44" t="n">
-        <v>2.887043131405913</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="L44" t="n">
-        <v>2.887043131405913</v>
+        <v>17.55565954206922</v>
       </c>
       <c r="M44" t="n">
-        <v>19.19936525831539</v>
+        <v>33.86798166897869</v>
       </c>
       <c r="N44" t="n">
-        <v>33.86798166897869</v>
+        <v>50.18030379588816</v>
       </c>
       <c r="O44" t="n">
         <v>50.18030379588816</v>
@@ -7672,28 +7672,28 @@
         <v>65.90837222993726</v>
       </c>
       <c r="R44" t="n">
-        <v>51.24875246727849</v>
+        <v>49.26484388904401</v>
       </c>
       <c r="S44" t="n">
+        <v>49.26484388904401</v>
+      </c>
+      <c r="T44" t="n">
+        <v>49.26484388904401</v>
+      </c>
+      <c r="U44" t="n">
+        <v>49.26484388904401</v>
+      </c>
+      <c r="V44" t="n">
         <v>34.60522412638524</v>
       </c>
-      <c r="T44" t="n">
-        <v>17.96169578549199</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.318167444598745</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.318167444598745</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="X44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.318167444598745</v>
+        <v>34.60522412638524</v>
       </c>
     </row>
     <row r="45">
@@ -7757,19 +7757,19 @@
         <v>65.90837222993726</v>
       </c>
       <c r="T45" t="n">
-        <v>49.26484388904401</v>
+        <v>51.24875246727849</v>
       </c>
       <c r="U45" t="n">
-        <v>49.26484388904401</v>
+        <v>34.60522412638524</v>
       </c>
       <c r="V45" t="n">
-        <v>32.62131554815076</v>
+        <v>17.96169578549199</v>
       </c>
       <c r="W45" t="n">
-        <v>15.97778720725751</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="X45" t="n">
-        <v>15.97778720725751</v>
+        <v>1.318167444598745</v>
       </c>
       <c r="Y45" t="n">
         <v>1.318167444598745</v>
@@ -7987,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>103.4313526483917</v>
       </c>
       <c r="N2" t="n">
-        <v>89.21461903306817</v>
+        <v>98.28912678148041</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>48.18243417848285</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>27.63125463138579</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.077073551123931</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>39.29883713334738</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>60.100992941946</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>90.24443850190491</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>84.88883457760923</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>39.45781263504628</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>17.45003280400815</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.73849888737621</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>52.42797864524584</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8692,7 +8692,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L11" t="n">
         <v>48.07411698098349</v>
@@ -9166,19 +9166,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.69308435253603</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>62.42182914331151</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>21.0550339701014</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>31.88310145636362</v>
       </c>
       <c r="P17" t="n">
         <v>67.78072631241469</v>
@@ -9403,19 +9403,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>62.42182914331151</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>18.89060551222233</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>34.04752991424269</v>
       </c>
       <c r="P20" t="n">
         <v>67.78072631241469</v>
@@ -9643,16 +9643,16 @@
         <v>82.693084352536</v>
       </c>
       <c r="L23" t="n">
-        <v>64.47562415014559</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M23" t="n">
-        <v>23.1844148652577</v>
+        <v>20.39974253986696</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O23" t="n">
-        <v>36.17691080939899</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9722,7 +9722,7 @@
         <v>39.13339190934374</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9880,19 +9880,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L26" t="n">
-        <v>64.5512100384678</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O26" t="n">
-        <v>36.17691080939899</v>
+        <v>31.80751556804141</v>
       </c>
       <c r="P26" t="n">
-        <v>82.00735532029643</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9959,7 +9959,7 @@
         <v>39.13339190934374</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10117,16 +10117,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>64.5512100384678</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M29" t="n">
-        <v>21.52410606096864</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N29" t="n">
-        <v>16.47709305748431</v>
+        <v>12.10769781612673</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10196,7 +10196,7 @@
         <v>39.13339190934374</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>61.76653771307705</v>
       </c>
       <c r="M32" t="n">
-        <v>21.52410606096864</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N32" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O32" t="n">
-        <v>36.17691080939899</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P32" t="n">
         <v>83.66766412458549</v>
@@ -10433,7 +10433,7 @@
         <v>39.13339190934374</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L35" t="n">
-        <v>62.30074598886524</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M35" t="n">
-        <v>23.1844148652577</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N35" t="n">
-        <v>16.47709305748431</v>
+        <v>29.57935854426437</v>
       </c>
       <c r="O35" t="n">
-        <v>36.17691080939899</v>
+        <v>50.52462297172701</v>
       </c>
       <c r="P35" t="n">
         <v>67.78072631241469</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>17.58859436443622</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L38" t="n">
-        <v>64.5512100384678</v>
+        <v>78.89892220079582</v>
       </c>
       <c r="M38" t="n">
-        <v>23.1844148652577</v>
+        <v>37.53212702758572</v>
       </c>
       <c r="N38" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>49.27917629617905</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>67.78072631241469</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10907,7 +10907,7 @@
         <v>39.13339190934374</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L41" t="n">
-        <v>64.5512100384678</v>
+        <v>64.47562415014559</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>23.1844148652577</v>
       </c>
       <c r="N41" t="n">
-        <v>14.81678425319526</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>36.17691080939899</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>64.47562415014559</v>
       </c>
       <c r="M44" t="n">
         <v>23.1844148652577</v>
       </c>
       <c r="N44" t="n">
-        <v>14.81678425319526</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O44" t="n">
-        <v>36.17691080939899</v>
+        <v>19.69981775191468</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -22561,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.2607133359729</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>350.4806023312431</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>256.3742847059767</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>107.9741655860434</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>68.48516631850413</v>
       </c>
       <c r="L2" t="n">
-        <v>18.3845087542864</v>
+        <v>26.41009479666971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>13.50340589185726</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874355</v>
+        <v>63.3256456162145</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>126.3482411022567</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>214.6928580127602</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>237.0935810662935</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>219.6944760536738</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7952448776768</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0578462691871</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.1644856998442</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>118.4271438682141</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>85.50942048087522</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636242</v>
+        <v>17.9647789969012</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.8266610081867</v>
+        <v>59.30009476983381</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>157.0545648583456</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>208.8189720718104</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.268131084181</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6523755186718</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.270330657206</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>167.8972458212517</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>168.8166240754742</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>134.8219071713356</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>91.64097103418761</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>66.36122059355471</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975205</v>
+        <v>63.28248407193209</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>50.80637898180188</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>75.80743571234818</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>94.19706210699727</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>154.6489043894098</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>222.6698630464334</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>244.3185019660505</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.2402396986135</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2215408554795</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1856132717812</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.7114837988406</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>253.4789894812293</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>101.6001415128599</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>58.93215652808937</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>14.55874141675068</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8498899512915159</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>52.52616251037935</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
-        <v>118.2382790452839</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.9753536054833</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.382238353527</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.365725522675</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7892368725415</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0176641923887</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.7764114318177</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>117.0436820135333</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>81.71309540932351</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>11.47625477985841</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.17088791395707</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
-        <v>154.5597513532676</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>208.0726076189984</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.1061691167349</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6497319609877</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2366433538217</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5977350693439</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.8035549882441</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>132.4402148220645</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>87.72711887735542</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>61.35283732494487</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>58.00184614233449</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
-        <v>45.65130281936399</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>71.0458885030816</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>90.1227358867707</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.8280521032923</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>221.1551593869896</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.7314241425257</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0963030386987</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.219703366204</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R11" t="n">
         <v>180.0906730958467</v>
@@ -23442,10 +23442,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M13" t="n">
         <v>24.54979951156312</v>
@@ -23737,7 +23737,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>304.7840434809196</v>
       </c>
       <c r="E17" t="n">
         <v>359.9585549362873</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R17" t="n">
         <v>180.0906730958467</v>
@@ -23785,13 +23785,13 @@
         <v>224.5411397984024</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>202.9354282182709</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>234.4034649017918</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>300.6669771284446</v>
       </c>
       <c r="W17" t="n">
         <v>325.3917254792934</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188.0127573810344</v>
+        <v>173.6650452187064</v>
       </c>
       <c r="C18" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D18" t="n">
-        <v>172.0989423795122</v>
+        <v>157.7512302171842</v>
       </c>
       <c r="E18" t="n">
-        <v>187.4605452976028</v>
+        <v>173.1128331352748</v>
       </c>
       <c r="F18" t="n">
-        <v>173.9843481253239</v>
+        <v>161.3468832527454</v>
       </c>
       <c r="G18" t="n">
         <v>160.7631167826437</v>
@@ -23916,10 +23916,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K19" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M19" t="n">
         <v>24.54979951156312</v>
@@ -23983,7 +23983,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>407.3621535041817</v>
       </c>
       <c r="H20" t="n">
         <v>344.8392336363538</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>52.51517767419178</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>165.7429609335186</v>
       </c>
       <c r="S20" t="n">
         <v>224.5411397984024</v>
@@ -24028,7 +24028,7 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>300.6669771284446</v>
       </c>
       <c r="W20" t="n">
         <v>325.3917254792934</v>
@@ -24098,19 +24098,19 @@
         <v>138.7554832289223</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>188.9967889642571</v>
       </c>
       <c r="T21" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>235.2852732585449</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>234.9522130178444</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>270.6117918903526</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24214,10 +24214,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>343.481461878803</v>
+        <v>329.133749716475</v>
       </c>
       <c r="F23" t="n">
-        <v>382.6693245158847</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
         <v>421.7098656665098</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>50.38579677903549</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R23" t="n">
-        <v>165.5776495308145</v>
+        <v>149.2658678760343</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>197.3906513607917</v>
       </c>
       <c r="T23" t="n">
         <v>217.2831403805989</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>347.1041711753698</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>173.4997338160023</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>187.3653345577551</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>155.6218493220279</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E24" t="n">
         <v>187.4605452976028</v>
@@ -24302,7 +24302,7 @@
         <v>160.7631167826437</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>108.1675309053537</v>
       </c>
       <c r="I24" t="n">
         <v>108.279659353452</v>
@@ -24332,13 +24332,13 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>107.9306780091099</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>172.5196959067728</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>198.2553592058889</v>
       </c>
       <c r="U24" t="n">
         <v>249.6329854208729</v>
@@ -24353,7 +24353,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>226.419173356109</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="25">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>364.5563275970632</v>
+        <v>333.7315223772508</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>302.7723142543961</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24457,7 +24457,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>394.5593772288991</v>
       </c>
       <c r="H26" t="n">
         <v>344.8392336363538</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>50.38579677903549</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R26" t="n">
-        <v>163.6135800383623</v>
+        <v>180.0906730958467</v>
       </c>
       <c r="S26" t="n">
-        <v>208.064046740918</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T26" t="n">
-        <v>202.7701168155668</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>217.9263718443075</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24569,19 +24569,19 @@
         <v>21.67813434720469</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>111.6049947913116</v>
       </c>
       <c r="S27" t="n">
-        <v>188.831477561553</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>198.2553592058889</v>
       </c>
       <c r="U27" t="n">
-        <v>233.1558923633886</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8228321226881</v>
+        <v>218.47511996036</v>
       </c>
       <c r="W27" t="n">
         <v>283.2492567629311</v>
@@ -24590,7 +24590,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>226.419173356109</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24685,7 +24685,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>288.3069504234353</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>407.1968421014776</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H29" t="n">
-        <v>328.3621405788695</v>
+        <v>314.0144284165414</v>
       </c>
       <c r="I29" t="n">
-        <v>218.660636871515</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J29" t="n">
-        <v>44.74456514246249</v>
+        <v>61.2216581999468</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>221.6006886265091</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>282.4796367812108</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24809,16 +24809,16 @@
         <v>138.7554832289223</v>
       </c>
       <c r="S30" t="n">
-        <v>186.8674080691008</v>
+        <v>172.5196959067728</v>
       </c>
       <c r="T30" t="n">
-        <v>212.6030713682169</v>
+        <v>198.2553592058889</v>
       </c>
       <c r="U30" t="n">
-        <v>233.1558923633886</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V30" t="n">
-        <v>234.7869016151402</v>
+        <v>222.1494367425617</v>
       </c>
       <c r="W30" t="n">
         <v>283.2492567629311</v>
@@ -24919,19 +24919,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
-        <v>333.5971194742085</v>
+        <v>302.7723142543961</v>
       </c>
       <c r="D32" t="n">
-        <v>319.1317556432476</v>
+        <v>288.3069504234353</v>
       </c>
       <c r="E32" t="n">
-        <v>343.481461878803</v>
+        <v>329.133749716475</v>
       </c>
       <c r="F32" t="n">
-        <v>384.6333940083368</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>394.5593772288991</v>
       </c>
       <c r="H32" t="n">
         <v>344.8392336363538</v>
@@ -24973,7 +24973,7 @@
         <v>217.2831403805989</v>
       </c>
       <c r="U32" t="n">
-        <v>232.2740840066355</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24985,7 +24985,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>361.4518833376978</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -25004,13 +25004,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>170.9834522401185</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>133.612628345033</v>
       </c>
       <c r="H33" t="n">
         <v>135.3180193429644</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.201041289720376</v>
+        <v>21.67813434720469</v>
       </c>
       <c r="R33" t="n">
         <v>138.7554832289223</v>
       </c>
       <c r="S33" t="n">
-        <v>186.8674080691008</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T33" t="n">
         <v>229.0801644257012</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>218.47511996036</v>
       </c>
       <c r="W33" t="n">
-        <v>268.7362331978989</v>
+        <v>252.4244515431188</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25162,19 +25162,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>359.9585549362873</v>
+        <v>329.133749716475</v>
       </c>
       <c r="F35" t="n">
-        <v>382.6693245158847</v>
+        <v>368.3216123535567</v>
       </c>
       <c r="G35" t="n">
-        <v>407.1968421014776</v>
+        <v>421.7098656665098</v>
       </c>
       <c r="H35" t="n">
-        <v>328.3621405788695</v>
+        <v>317.688745198743</v>
       </c>
       <c r="I35" t="n">
-        <v>218.660636871515</v>
+        <v>235.1377299289993</v>
       </c>
       <c r="J35" t="n">
         <v>61.2216581999468</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>36.03808461670747</v>
       </c>
       <c r="R35" t="n">
         <v>180.0906730958467</v>
@@ -25235,10 +25235,10 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>187.3653345577551</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
-        <v>157.58591881448</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
         <v>187.4605452976028</v>
@@ -25250,7 +25250,7 @@
         <v>160.7631167826437</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>104.493214123152</v>
       </c>
       <c r="I36" t="n">
         <v>108.279659353452</v>
@@ -25289,19 +25289,19 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>218.8081802010606</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>218.47511996036</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>256.0987683253204</v>
       </c>
       <c r="X36" t="n">
-        <v>213.5559706534787</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>226.419173356109</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25396,19 +25396,19 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>302.6546625857633</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>332.8080664986766</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>368.3216123535567</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>390.8850604466974</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>314.0144284165414</v>
       </c>
       <c r="I38" t="n">
         <v>235.1377299289993</v>
@@ -25450,13 +25450,13 @@
         <v>248.7511770641198</v>
       </c>
       <c r="V38" t="n">
-        <v>298.7914184359909</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W38" t="n">
-        <v>308.9146324218091</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>332.3397862460286</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25481,10 +25481,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>173.9843481253239</v>
+        <v>143.1595429055116</v>
       </c>
       <c r="G39" t="n">
-        <v>146.2500932176115</v>
+        <v>129.9383115628313</v>
       </c>
       <c r="H39" t="n">
         <v>135.3180193429644</v>
@@ -25493,7 +25493,7 @@
         <v>108.279659353452</v>
       </c>
       <c r="J39" t="n">
-        <v>57.66394736845585</v>
+        <v>26.83914214864352</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,16 +25520,16 @@
         <v>138.7554832289223</v>
       </c>
       <c r="S39" t="n">
-        <v>186.8674080691008</v>
+        <v>203.3445011265852</v>
       </c>
       <c r="T39" t="n">
-        <v>212.6030713682169</v>
+        <v>229.0801644257012</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>222.4824969832622</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8228321226881</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W39" t="n">
         <v>283.2492567629311</v>
@@ -25630,10 +25630,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>317.1200264167242</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>302.6546625857633</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
@@ -25675,16 +25675,16 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0906730958467</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>208.064046740918</v>
       </c>
       <c r="T41" t="n">
-        <v>202.7701168155668</v>
+        <v>200.8060473231146</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>234.2381534990876</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.4518833376978</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>173.4997338160023</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>187.3653345577551</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
         <v>172.0989423795122</v>
@@ -25718,7 +25718,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>159.4713245602917</v>
       </c>
       <c r="G42" t="n">
         <v>160.7631167826437</v>
@@ -25727,7 +25727,7 @@
         <v>135.3180193429644</v>
       </c>
       <c r="I42" t="n">
-        <v>91.80256629596765</v>
+        <v>108.279659353452</v>
       </c>
       <c r="J42" t="n">
         <v>57.66394736845585</v>
@@ -25763,19 +25763,19 @@
         <v>229.0801644257012</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>232.8228321226881</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>266.7721637054468</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>226.419173356109</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>382.6693245158847</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>405.2327726090255</v>
       </c>
       <c r="H44" t="n">
         <v>344.8392336363538</v>
@@ -25912,19 +25912,19 @@
         <v>66.8628898365198</v>
       </c>
       <c r="R44" t="n">
-        <v>165.5776495308145</v>
+        <v>163.6135800383623</v>
       </c>
       <c r="S44" t="n">
-        <v>208.064046740918</v>
+        <v>224.5411397984024</v>
       </c>
       <c r="T44" t="n">
-        <v>200.8060473231146</v>
+        <v>217.2831403805989</v>
       </c>
       <c r="U44" t="n">
-        <v>232.2740840066355</v>
+        <v>248.7511770641198</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>298.7914184359909</v>
       </c>
       <c r="W44" t="n">
         <v>325.3917254792934</v>
@@ -25997,10 +25997,10 @@
         <v>203.3445011265852</v>
       </c>
       <c r="T45" t="n">
-        <v>212.6030713682169</v>
+        <v>214.567140860669</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>233.1558923633886</v>
       </c>
       <c r="V45" t="n">
         <v>232.8228321226881</v>
@@ -26012,7 +26012,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>228.3832428485612</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>376537.5802420764</v>
+        <v>371170.7509921197</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379138.8403809541</v>
+        <v>376537.5802420764</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>410022.8834657758</v>
+        <v>419870.8252705138</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>410022.8834657758</v>
+        <v>419870.8252705138</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>421332.3836638218</v>
+        <v>431355.4545127717</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>421332.3836638221</v>
+        <v>431355.4545127718</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>421332.383663822</v>
+        <v>431355.4545127717</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>421332.3836638218</v>
+        <v>431355.4545127717</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421332.3836638218</v>
+        <v>431355.4545127717</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>421332.3836638218</v>
+        <v>431355.4545127717</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421332.383663822</v>
+        <v>421332.3836638221</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421332.3836638221</v>
+        <v>421332.383663822</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>139286.9194128888</v>
+      </c>
+      <c r="C2" t="n">
         <v>141766.1570722572</v>
-      </c>
-      <c r="C2" t="n">
-        <v>142948.0005425171</v>
       </c>
       <c r="D2" t="n">
         <v>143193.9018459611</v>
       </c>
       <c r="E2" t="n">
+        <v>159251.8460669728</v>
+      </c>
+      <c r="F2" t="n">
         <v>159251.8460669727</v>
       </c>
-      <c r="F2" t="n">
-        <v>159251.8460669728</v>
-      </c>
       <c r="G2" t="n">
-        <v>159251.8460669728</v>
+        <v>162648.3627499061</v>
       </c>
       <c r="H2" t="n">
-        <v>159251.8460669727</v>
+        <v>162648.3627499061</v>
       </c>
       <c r="I2" t="n">
-        <v>163152.4485339593</v>
+        <v>166548.9652168927</v>
       </c>
       <c r="J2" t="n">
-        <v>163152.4485339593</v>
+        <v>166548.9652168927</v>
       </c>
       <c r="K2" t="n">
-        <v>163152.4485339593</v>
+        <v>166548.9652168927</v>
       </c>
       <c r="L2" t="n">
-        <v>163152.4485339593</v>
+        <v>166548.9652168927</v>
       </c>
       <c r="M2" t="n">
-        <v>163152.4485339593</v>
+        <v>166548.9652168927</v>
       </c>
       <c r="N2" t="n">
-        <v>163152.4485339593</v>
+        <v>166548.9652168927</v>
       </c>
       <c r="O2" t="n">
         <v>163152.4485339593</v>
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>318681.4412281094</v>
       </c>
       <c r="C3" t="n">
-        <v>5491.393996085815</v>
+        <v>11519.6903313523</v>
       </c>
       <c r="D3" t="n">
-        <v>1074.579704107339</v>
+        <v>6239.192452337453</v>
       </c>
       <c r="E3" t="n">
-        <v>94068.42750429735</v>
+        <v>94068.42750429739</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3932.492688011675</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4381.605062939286</v>
+        <v>4381.605062939288</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>22953.45245989778</v>
+      </c>
+      <c r="C4" t="n">
         <v>22122.18756143353</v>
       </c>
-      <c r="C4" t="n">
-        <v>21768.8390246614</v>
-      </c>
       <c r="D4" t="n">
-        <v>21695.3192498784</v>
+        <v>21695.31924987839</v>
       </c>
       <c r="E4" t="n">
         <v>11893.26829834401</v>
@@ -26432,28 +26432,28 @@
         <v>11893.26829834401</v>
       </c>
       <c r="G4" t="n">
-        <v>11893.26829834401</v>
+        <v>13260.31483493737</v>
       </c>
       <c r="H4" t="n">
-        <v>11893.26829834401</v>
+        <v>13260.31483493737</v>
       </c>
       <c r="I4" t="n">
-        <v>13463.20173041432</v>
+        <v>15005.37731121937</v>
       </c>
       <c r="J4" t="n">
-        <v>13463.20173041432</v>
+        <v>15005.37731121937</v>
       </c>
       <c r="K4" t="n">
-        <v>13463.20173041432</v>
+        <v>15005.37731121937</v>
       </c>
       <c r="L4" t="n">
-        <v>13463.20173041432</v>
+        <v>15005.37731121937</v>
       </c>
       <c r="M4" t="n">
-        <v>13463.20173041432</v>
+        <v>15005.37731121937</v>
       </c>
       <c r="N4" t="n">
-        <v>13463.20173041432</v>
+        <v>15005.37731121937</v>
       </c>
       <c r="O4" t="n">
         <v>13463.20173041432</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40837.19079918264</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
-      </c>
-      <c r="C5" t="n">
-        <v>41244.43967227775</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26484,28 +26484,28 @@
         <v>10196.69999876384</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>11069.04089823339</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>11069.04089823339</v>
       </c>
       <c r="I5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="J5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="K5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="L5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="M5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="N5" t="n">
-        <v>11198.50725665889</v>
+        <v>12070.84815612844</v>
       </c>
       <c r="O5" t="n">
         <v>11198.50725665889</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252340.7592398325</v>
+        <v>-260040.9554280865</v>
       </c>
       <c r="C6" t="n">
-        <v>74443.32784949215</v>
+        <v>50279.47614310221</v>
       </c>
       <c r="D6" t="n">
-        <v>79152.20981637921</v>
+        <v>57327.15583601715</v>
       </c>
       <c r="E6" t="n">
-        <v>43093.45026556753</v>
+        <v>27235.90624448614</v>
       </c>
       <c r="F6" t="n">
-        <v>137161.8777698649</v>
+        <v>121304.3337487835</v>
       </c>
       <c r="G6" t="n">
-        <v>137161.8777698649</v>
+        <v>118698.7961417889</v>
       </c>
       <c r="H6" t="n">
-        <v>137161.8777698649</v>
+        <v>122631.2888298006</v>
       </c>
       <c r="I6" t="n">
-        <v>134109.1344839468</v>
+        <v>119598.4466230202</v>
       </c>
       <c r="J6" t="n">
-        <v>138490.7395468861</v>
+        <v>123980.0516859595</v>
       </c>
       <c r="K6" t="n">
-        <v>138490.7395468861</v>
+        <v>123980.0516859595</v>
       </c>
       <c r="L6" t="n">
-        <v>138490.7395468861</v>
+        <v>123980.0516859595</v>
       </c>
       <c r="M6" t="n">
-        <v>138490.7395468861</v>
+        <v>123980.0516859595</v>
       </c>
       <c r="N6" t="n">
-        <v>138490.7395468861</v>
+        <v>123980.0516859595</v>
       </c>
       <c r="O6" t="n">
-        <v>138490.7395468861</v>
+        <v>122828.225649154</v>
       </c>
       <c r="P6" t="n">
-        <v>138490.7395468861</v>
+        <v>122828.2256491541</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>330.7151742744331</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>349.3963152420985</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26804,28 +26804,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="I4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="J4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="K4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="L4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N4" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O4" t="n">
         <v>16.47709305748431</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>330.7151742744331</v>
       </c>
       <c r="C3" t="n">
-        <v>6.030509482832033</v>
+        <v>12.65063148483344</v>
       </c>
       <c r="D3" t="n">
-        <v>1.254743271487084</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="E3" t="n">
-        <v>117.0874735398017</v>
+        <v>117.0874735398018</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>16.47709305748431</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.329508238289177</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>13.61582624537904</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>51.25586635664357</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>112.8403498394962</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>169.1184335662771</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562028</v>
+        <v>209.8063713138195</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>233.4500134464947</v>
       </c>
       <c r="N2" t="n">
-        <v>246.3019864769461</v>
+        <v>237.2274787285338</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>224.0071811840458</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>191.1849465512817</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>143.5719327675505</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>83.51472187343262</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>30.29616898001466</v>
       </c>
       <c r="T2" t="n">
-        <v>6.042547998838951</v>
+        <v>5.819922313110877</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1063606590631342</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.7113496201374599</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640614</v>
+        <v>6.870139752380207</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>24.49164262315378</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>67.20693933061854</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003671</v>
+        <v>114.8673638798284</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>154.4533462495831</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>180.239769979566</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>185.010180370751</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>169.2481703666526</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>135.836577901512</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.27658878129901</v>
+        <v>90.80315501965191</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913377</v>
+        <v>44.16607553800828</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>13.21300719860588</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.867238161869849</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.0467993171143066</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.596371625740781</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>5.302285908858948</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>17.93452125409549</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>42.16347393987321</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>69.28753979061072</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>88.66419606695213</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716446</v>
+        <v>93.48396311498442</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>91.26112341904158</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>84.29441851834243</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>72.12843735323042</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>49.9379913154394</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>26.81503691739911</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>10.39313096859161</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.548133309983336</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03252936140404264</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.404608302480797</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.38494477778147</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.15116158139098</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>119.2143739126797</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>178.6714433566918</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>221.6577246937386</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
-        <v>246.6369275929814</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>250.627770932405</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
-        <v>236.6606971246116</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>201.9844296571169</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.6818948245233</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>88.23222628070944</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.00751169278119</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.148672844109692</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1123686641984637</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7515316969358345</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.258214020406614</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
-        <v>25.87510447783466</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.00326440217025</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>121.3558880968712</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1779677930197</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>190.4209918069437</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>178.8085086126238</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5095921982121</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.93236187552864</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>46.66088904308631</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
-        <v>13.9593716514178</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.029200129315929</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04944287479841019</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6300589291250956</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.601796660766763</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>18.94759034132561</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>44.54516628914426</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.20139194744291</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>93.67257933556196</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>98.76460104458202</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
-        <v>96.41619958147948</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.05596572760901</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.20276357345699</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.75884360155688</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.32974057684293</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>10.98020879211644</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.692069969898135</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03436685067955071</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R11" t="n">
         <v>118.1169067903461</v>
@@ -31791,7 +31791,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U11" t="n">
         <v>0.1504284726201847</v>
@@ -31873,7 +31873,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I13" t="n">
         <v>25.36523055791157</v>
@@ -31922,7 +31922,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L13" t="n">
         <v>125.3999336590344</v>
@@ -32256,7 +32256,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R17" t="n">
         <v>118.1169067903461</v>
@@ -32265,7 +32265,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T17" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U17" t="n">
         <v>0.1504284726201847</v>
@@ -32320,16 +32320,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L18" t="n">
-        <v>202.635780428066</v>
+        <v>216.983492590394</v>
       </c>
       <c r="M18" t="n">
-        <v>207.8710246109518</v>
+        <v>222.2187367732798</v>
       </c>
       <c r="N18" t="n">
-        <v>192.087253921875</v>
+        <v>206.434966084203</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5470075</v>
+        <v>222.3150141204158</v>
       </c>
       <c r="P18" t="n">
         <v>192.1169830994376</v>
@@ -32347,7 +32347,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,7 +32387,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I19" t="n">
         <v>25.36523055791157</v>
@@ -32396,7 +32396,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K19" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L19" t="n">
         <v>125.3999336590344</v>
@@ -32557,16 +32557,16 @@
         <v>162.4597125906563</v>
       </c>
       <c r="L21" t="n">
-        <v>202.635780428066</v>
+        <v>216.983492590394</v>
       </c>
       <c r="M21" t="n">
-        <v>207.8710246109518</v>
+        <v>222.2187367732798</v>
       </c>
       <c r="N21" t="n">
-        <v>192.087253921875</v>
+        <v>206.434966084203</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5470075</v>
+        <v>222.3150141204158</v>
       </c>
       <c r="P21" t="n">
         <v>192.1169830994376</v>
@@ -32797,13 +32797,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M24" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N24" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O24" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P24" t="n">
         <v>192.1169830994376</v>
@@ -33034,13 +33034,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M27" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N27" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O27" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P27" t="n">
         <v>192.1169830994376</v>
@@ -33271,13 +33271,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M30" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N30" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O30" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P30" t="n">
         <v>192.1169830994376</v>
@@ -33508,13 +33508,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M33" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N33" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O33" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P33" t="n">
         <v>192.1169830994376</v>
@@ -33745,13 +33745,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M36" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N36" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O36" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P36" t="n">
         <v>192.1169830994376</v>
@@ -33982,13 +33982,13 @@
         <v>218.4471323519146</v>
       </c>
       <c r="M39" t="n">
-        <v>224.3481176684361</v>
+        <v>238.6958298307642</v>
       </c>
       <c r="N39" t="n">
-        <v>208.5643469793593</v>
+        <v>222.9120591416873</v>
       </c>
       <c r="O39" t="n">
-        <v>225.0241005574843</v>
+        <v>239.3718127198123</v>
       </c>
       <c r="P39" t="n">
         <v>192.1169830994376</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>12.18328370444894</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.584722915966836</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>12.18328370444894</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.34771216232802</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>13.76800662041578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>16.4015071691621</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M23" t="n">
-        <v>16.47709305748431</v>
+        <v>13.69242073209356</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O23" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P23" t="n">
         <v>15.8869378121708</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>15.81135192384858</v>
+        <v>29.57935854426436</v>
       </c>
       <c r="M24" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N24" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O24" t="n">
-        <v>16.47709305748432</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>1.584722915966836</v>
       </c>
       <c r="L26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N26" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O26" t="n">
-        <v>16.47709305748431</v>
+        <v>12.10769781612673</v>
       </c>
       <c r="P26" t="n">
-        <v>14.22662900788174</v>
+        <v>15.8869378121708</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15.81135192384858</v>
+        <v>29.57935854426436</v>
       </c>
       <c r="M27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O27" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>1.584722915966836</v>
       </c>
       <c r="L29" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M29" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N29" t="n">
-        <v>16.47709305748431</v>
+        <v>12.10769781612673</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P29" t="n">
         <v>15.8869378121708</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>15.81135192384858</v>
+        <v>29.57935854426436</v>
       </c>
       <c r="M30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O30" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>13.69242073209356</v>
       </c>
       <c r="M32" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N32" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O32" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P32" t="n">
         <v>15.8869378121708</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>15.81135192384858</v>
+        <v>29.57935854426436</v>
       </c>
       <c r="M33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O33" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>14.22662900788175</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M35" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N35" t="n">
-        <v>16.47709305748431</v>
+        <v>29.57935854426437</v>
       </c>
       <c r="O35" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>15.81135192384858</v>
       </c>
       <c r="M36" t="n">
-        <v>16.47709305748432</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N36" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O36" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>13.76800662041579</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="M38" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N38" t="n">
-        <v>14.81678425319526</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>29.57935854426437</v>
       </c>
       <c r="P38" t="n">
-        <v>15.8869378121708</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>15.81135192384858</v>
+        <v>29.57935854426436</v>
       </c>
       <c r="M39" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="N39" t="n">
-        <v>16.47709305748431</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="O39" t="n">
-        <v>16.47709305748432</v>
+        <v>30.82480521981233</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>16.4015071691621</v>
+      </c>
+      <c r="M41" t="n">
         <v>16.47709305748431</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
       <c r="N41" t="n">
-        <v>14.81678425319526</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>16.47709305748431</v>
@@ -37867,7 +37867,7 @@
         <v>15.81135192384858</v>
       </c>
       <c r="M42" t="n">
-        <v>16.47709305748432</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="N42" t="n">
         <v>16.47709305748431</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.584722915966836</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.4015071691621</v>
       </c>
       <c r="M44" t="n">
         <v>16.47709305748431</v>
       </c>
       <c r="N44" t="n">
-        <v>14.81678425319526</v>
+        <v>16.47709305748431</v>
       </c>
       <c r="O44" t="n">
-        <v>16.47709305748431</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>15.8869378121708</v>
@@ -38104,7 +38104,7 @@
         <v>15.81135192384858</v>
       </c>
       <c r="M45" t="n">
-        <v>16.47709305748431</v>
+        <v>16.47709305748432</v>
       </c>
       <c r="N45" t="n">
         <v>16.47709305748431</v>
